--- a/OR1_1219/OR1-1219_poly_rem.xlsx
+++ b/OR1_1219/OR1-1219_poly_rem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Sorting data\OR1_1219\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AC7802E-B706-41E0-A80D-C2B6BA365445}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300C45F3-A7BA-4180-959C-9E959FED7895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{48D32CF4-D2A1-4C9C-A7E7-F373B1AADB02}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="27">
   <si>
     <t>Cruise</t>
   </si>
@@ -478,11 +478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABCBDE0-C1DD-4BAF-925A-3FEACCC7846D}">
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:G99"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B272" sqref="B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2005,9 +2005,6 @@
       <c r="J47" t="s">
         <v>22</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
       <c r="L47">
         <v>8</v>
       </c>
@@ -2040,9 +2037,6 @@
       <c r="J48" t="s">
         <v>22</v>
       </c>
-      <c r="K48">
-        <v>2</v>
-      </c>
       <c r="L48">
         <v>7</v>
       </c>
@@ -2075,9 +2069,6 @@
       <c r="J49" t="s">
         <v>22</v>
       </c>
-      <c r="K49">
-        <v>3</v>
-      </c>
       <c r="L49">
         <v>126</v>
       </c>
@@ -2110,9 +2101,6 @@
       <c r="J50" t="s">
         <v>22</v>
       </c>
-      <c r="K50">
-        <v>4</v>
-      </c>
       <c r="L50">
         <v>5.5</v>
       </c>
@@ -2145,9 +2133,6 @@
       <c r="J51" t="s">
         <v>22</v>
       </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
       <c r="L51">
         <v>76</v>
       </c>
@@ -2180,9 +2165,6 @@
       <c r="J52" t="s">
         <v>22</v>
       </c>
-      <c r="K52">
-        <v>6</v>
-      </c>
       <c r="L52">
         <v>7</v>
       </c>
@@ -2215,9 +2197,6 @@
       <c r="J53" t="s">
         <v>22</v>
       </c>
-      <c r="K53">
-        <v>7</v>
-      </c>
       <c r="L53">
         <v>76</v>
       </c>
@@ -2250,9 +2229,6 @@
       <c r="J54" t="s">
         <v>22</v>
       </c>
-      <c r="K54">
-        <v>8</v>
-      </c>
       <c r="L54">
         <v>9</v>
       </c>
@@ -2285,9 +2261,6 @@
       <c r="J55" t="s">
         <v>22</v>
       </c>
-      <c r="K55">
-        <v>9</v>
-      </c>
       <c r="L55">
         <v>6</v>
       </c>
@@ -2320,9 +2293,6 @@
       <c r="J56" t="s">
         <v>22</v>
       </c>
-      <c r="K56">
-        <v>10</v>
-      </c>
       <c r="L56">
         <v>8.5</v>
       </c>
@@ -2355,9 +2325,6 @@
       <c r="J57" t="s">
         <v>22</v>
       </c>
-      <c r="K57">
-        <v>11</v>
-      </c>
       <c r="L57">
         <v>7</v>
       </c>
@@ -2390,9 +2357,6 @@
       <c r="J58" t="s">
         <v>22</v>
       </c>
-      <c r="K58">
-        <v>12</v>
-      </c>
       <c r="L58">
         <v>70</v>
       </c>
@@ -2425,9 +2389,6 @@
       <c r="J59" t="s">
         <v>22</v>
       </c>
-      <c r="K59">
-        <v>13</v>
-      </c>
       <c r="L59">
         <v>22</v>
       </c>
@@ -2460,9 +2421,6 @@
       <c r="J60" t="s">
         <v>22</v>
       </c>
-      <c r="K60">
-        <v>14</v>
-      </c>
       <c r="L60">
         <v>8.5</v>
       </c>
@@ -2495,9 +2453,6 @@
       <c r="J61" t="s">
         <v>22</v>
       </c>
-      <c r="K61">
-        <v>15</v>
-      </c>
       <c r="L61">
         <v>7</v>
       </c>
@@ -2530,9 +2485,6 @@
       <c r="J62" t="s">
         <v>22</v>
       </c>
-      <c r="K62">
-        <v>16</v>
-      </c>
       <c r="L62">
         <v>18</v>
       </c>
@@ -2565,9 +2517,6 @@
       <c r="J63" t="s">
         <v>22</v>
       </c>
-      <c r="K63">
-        <v>17</v>
-      </c>
       <c r="L63">
         <v>21</v>
       </c>
@@ -2600,9 +2549,6 @@
       <c r="J64" t="s">
         <v>22</v>
       </c>
-      <c r="K64">
-        <v>18</v>
-      </c>
       <c r="L64">
         <v>30</v>
       </c>
@@ -2635,9 +2581,6 @@
       <c r="J65" t="s">
         <v>22</v>
       </c>
-      <c r="K65">
-        <v>19</v>
-      </c>
       <c r="L65">
         <v>27</v>
       </c>
@@ -2670,9 +2613,6 @@
       <c r="J66" t="s">
         <v>22</v>
       </c>
-      <c r="K66">
-        <v>20</v>
-      </c>
       <c r="L66">
         <v>30</v>
       </c>
@@ -2705,9 +2645,6 @@
       <c r="J67" t="s">
         <v>22</v>
       </c>
-      <c r="K67">
-        <v>21</v>
-      </c>
       <c r="L67">
         <v>34</v>
       </c>
@@ -2740,9 +2677,6 @@
       <c r="J68" t="s">
         <v>22</v>
       </c>
-      <c r="K68">
-        <v>22</v>
-      </c>
       <c r="L68">
         <v>30</v>
       </c>
@@ -2775,9 +2709,6 @@
       <c r="J69" t="s">
         <v>22</v>
       </c>
-      <c r="K69">
-        <v>23</v>
-      </c>
       <c r="L69">
         <v>30</v>
       </c>
@@ -2810,9 +2741,6 @@
       <c r="J70" t="s">
         <v>22</v>
       </c>
-      <c r="K70">
-        <v>24</v>
-      </c>
       <c r="L70">
         <v>14</v>
       </c>
@@ -2845,9 +2773,6 @@
       <c r="J71" t="s">
         <v>23</v>
       </c>
-      <c r="K71">
-        <v>25</v>
-      </c>
       <c r="L71">
         <v>54</v>
       </c>
@@ -2880,9 +2805,6 @@
       <c r="J72" t="s">
         <v>23</v>
       </c>
-      <c r="K72">
-        <v>26</v>
-      </c>
       <c r="L72">
         <v>24</v>
       </c>
@@ -2915,9 +2837,6 @@
       <c r="J73" t="s">
         <v>23</v>
       </c>
-      <c r="K73">
-        <v>27</v>
-      </c>
       <c r="L73">
         <v>20</v>
       </c>
@@ -2950,9 +2869,6 @@
       <c r="J74" t="s">
         <v>23</v>
       </c>
-      <c r="K74">
-        <v>28</v>
-      </c>
       <c r="L74">
         <v>25</v>
       </c>
@@ -2985,9 +2901,6 @@
       <c r="J75" t="s">
         <v>23</v>
       </c>
-      <c r="K75">
-        <v>29</v>
-      </c>
       <c r="L75">
         <v>19</v>
       </c>
@@ -3020,9 +2933,6 @@
       <c r="J76" t="s">
         <v>23</v>
       </c>
-      <c r="K76">
-        <v>30</v>
-      </c>
       <c r="L76">
         <v>56</v>
       </c>
@@ -3055,9 +2965,6 @@
       <c r="J77" t="s">
         <v>23</v>
       </c>
-      <c r="K77">
-        <v>31</v>
-      </c>
       <c r="L77">
         <v>95</v>
       </c>
@@ -3090,9 +2997,6 @@
       <c r="J78" t="s">
         <v>23</v>
       </c>
-      <c r="K78">
-        <v>32</v>
-      </c>
       <c r="L78">
         <v>153</v>
       </c>
@@ -3125,9 +3029,6 @@
       <c r="J79" t="s">
         <v>23</v>
       </c>
-      <c r="K79">
-        <v>33</v>
-      </c>
       <c r="L79">
         <v>76</v>
       </c>
@@ -3160,9 +3061,6 @@
       <c r="J80" t="s">
         <v>23</v>
       </c>
-      <c r="K80">
-        <v>34</v>
-      </c>
       <c r="L80">
         <v>23</v>
       </c>
@@ -3195,9 +3093,6 @@
       <c r="J81" t="s">
         <v>23</v>
       </c>
-      <c r="K81">
-        <v>35</v>
-      </c>
       <c r="L81">
         <v>25</v>
       </c>
@@ -3230,9 +3125,6 @@
       <c r="J82" t="s">
         <v>23</v>
       </c>
-      <c r="K82">
-        <v>36</v>
-      </c>
       <c r="L82">
         <v>16</v>
       </c>
@@ -3265,9 +3157,6 @@
       <c r="J83" t="s">
         <v>23</v>
       </c>
-      <c r="K83">
-        <v>37</v>
-      </c>
       <c r="L83">
         <v>18</v>
       </c>
@@ -3300,9 +3189,6 @@
       <c r="J84" t="s">
         <v>22</v>
       </c>
-      <c r="K84">
-        <v>38</v>
-      </c>
       <c r="L84">
         <v>40</v>
       </c>
@@ -3335,9 +3221,6 @@
       <c r="J85" t="s">
         <v>22</v>
       </c>
-      <c r="K85">
-        <v>39</v>
-      </c>
       <c r="L85">
         <v>16</v>
       </c>
@@ -3370,9 +3253,6 @@
       <c r="J86" t="s">
         <v>23</v>
       </c>
-      <c r="K86">
-        <v>40</v>
-      </c>
       <c r="L86">
         <v>27</v>
       </c>
@@ -3405,9 +3285,6 @@
       <c r="J87" t="s">
         <v>23</v>
       </c>
-      <c r="K87">
-        <v>41</v>
-      </c>
       <c r="L87">
         <v>119</v>
       </c>
@@ -3440,9 +3317,6 @@
       <c r="J88" t="s">
         <v>23</v>
       </c>
-      <c r="K88">
-        <v>42</v>
-      </c>
       <c r="L88">
         <v>105</v>
       </c>
@@ -3475,9 +3349,6 @@
       <c r="J89" t="s">
         <v>23</v>
       </c>
-      <c r="K89">
-        <v>43</v>
-      </c>
       <c r="L89">
         <v>164</v>
       </c>
@@ -3510,9 +3381,6 @@
       <c r="J90" t="s">
         <v>24</v>
       </c>
-      <c r="K90">
-        <v>44</v>
-      </c>
       <c r="L90">
         <v>82</v>
       </c>
@@ -3545,9 +3413,6 @@
       <c r="J91" t="s">
         <v>24</v>
       </c>
-      <c r="K91">
-        <v>45</v>
-      </c>
       <c r="L91">
         <v>15</v>
       </c>
@@ -3580,9 +3445,6 @@
       <c r="J92" t="s">
         <v>24</v>
       </c>
-      <c r="K92">
-        <v>46</v>
-      </c>
       <c r="L92">
         <v>38</v>
       </c>
@@ -3615,9 +3477,6 @@
       <c r="J93" t="s">
         <v>24</v>
       </c>
-      <c r="K93">
-        <v>47</v>
-      </c>
       <c r="L93">
         <v>40</v>
       </c>
@@ -3650,9 +3509,6 @@
       <c r="J94" t="s">
         <v>24</v>
       </c>
-      <c r="K94">
-        <v>48</v>
-      </c>
       <c r="L94">
         <v>78</v>
       </c>
@@ -3685,9 +3541,6 @@
       <c r="J95" t="s">
         <v>24</v>
       </c>
-      <c r="K95">
-        <v>49</v>
-      </c>
       <c r="L95">
         <v>20</v>
       </c>
@@ -3720,9 +3573,6 @@
       <c r="J96" t="s">
         <v>24</v>
       </c>
-      <c r="K96">
-        <v>50</v>
-      </c>
       <c r="L96">
         <v>8</v>
       </c>
@@ -3755,9 +3605,6 @@
       <c r="J97" t="s">
         <v>24</v>
       </c>
-      <c r="K97">
-        <v>51</v>
-      </c>
       <c r="L97">
         <v>10</v>
       </c>
@@ -3790,9 +3637,6 @@
       <c r="J98" t="s">
         <v>24</v>
       </c>
-      <c r="K98">
-        <v>52</v>
-      </c>
       <c r="L98">
         <v>22</v>
       </c>
@@ -3825,13 +3669,5514 @@
       <c r="J99" t="s">
         <v>26</v>
       </c>
-      <c r="K99">
-        <v>53</v>
-      </c>
       <c r="L99">
         <v>24</v>
       </c>
       <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100">
+        <v>103</v>
+      </c>
+      <c r="M100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101">
+        <v>7</v>
+      </c>
+      <c r="M101">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>21</v>
+      </c>
+      <c r="J102" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102">
+        <v>8.5</v>
+      </c>
+      <c r="M102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
+      <c r="J103" t="s">
+        <v>22</v>
+      </c>
+      <c r="L103">
+        <v>36</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" t="s">
+        <v>21</v>
+      </c>
+      <c r="J104" t="s">
+        <v>22</v>
+      </c>
+      <c r="L104">
+        <v>7</v>
+      </c>
+      <c r="M104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
+        <v>21</v>
+      </c>
+      <c r="J105" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105">
+        <v>6</v>
+      </c>
+      <c r="M105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106">
+        <v>7.5</v>
+      </c>
+      <c r="M106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" t="s">
+        <v>21</v>
+      </c>
+      <c r="J107" t="s">
+        <v>22</v>
+      </c>
+      <c r="L107">
+        <v>6</v>
+      </c>
+      <c r="M107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" t="s">
+        <v>21</v>
+      </c>
+      <c r="J108" t="s">
+        <v>22</v>
+      </c>
+      <c r="L108">
+        <v>105</v>
+      </c>
+      <c r="M108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L109">
+        <v>36.5</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L110">
+        <v>15</v>
+      </c>
+      <c r="M110">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>21</v>
+      </c>
+      <c r="J111" t="s">
+        <v>22</v>
+      </c>
+      <c r="L111">
+        <v>24</v>
+      </c>
+      <c r="M111">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112">
+        <v>27</v>
+      </c>
+      <c r="M112">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113">
+        <v>22</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114" t="s">
+        <v>22</v>
+      </c>
+      <c r="L114">
+        <v>20</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" t="s">
+        <v>22</v>
+      </c>
+      <c r="L115">
+        <v>25</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>21</v>
+      </c>
+      <c r="J116" t="s">
+        <v>22</v>
+      </c>
+      <c r="L116">
+        <v>27</v>
+      </c>
+      <c r="M116">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L117">
+        <v>31</v>
+      </c>
+      <c r="M117">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" t="s">
+        <v>23</v>
+      </c>
+      <c r="L118">
+        <v>90</v>
+      </c>
+      <c r="M118">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>21</v>
+      </c>
+      <c r="J119" t="s">
+        <v>23</v>
+      </c>
+      <c r="L119">
+        <v>31</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>21</v>
+      </c>
+      <c r="J120" t="s">
+        <v>23</v>
+      </c>
+      <c r="L120">
+        <v>56</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>21</v>
+      </c>
+      <c r="J121" t="s">
+        <v>23</v>
+      </c>
+      <c r="L121">
+        <v>20</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>21</v>
+      </c>
+      <c r="J122" t="s">
+        <v>23</v>
+      </c>
+      <c r="L122">
+        <v>49</v>
+      </c>
+      <c r="M122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>21</v>
+      </c>
+      <c r="J123" t="s">
+        <v>22</v>
+      </c>
+      <c r="L123">
+        <v>22</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" t="s">
+        <v>21</v>
+      </c>
+      <c r="J124" t="s">
+        <v>23</v>
+      </c>
+      <c r="L124">
+        <v>63</v>
+      </c>
+      <c r="M124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
+        <v>21</v>
+      </c>
+      <c r="J125" t="s">
+        <v>23</v>
+      </c>
+      <c r="L125">
+        <v>26</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" t="s">
+        <v>21</v>
+      </c>
+      <c r="J126" t="s">
+        <v>23</v>
+      </c>
+      <c r="L126">
+        <v>24</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" t="s">
+        <v>21</v>
+      </c>
+      <c r="J127" t="s">
+        <v>23</v>
+      </c>
+      <c r="L127">
+        <v>14</v>
+      </c>
+      <c r="M127">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" t="s">
+        <v>21</v>
+      </c>
+      <c r="J128" t="s">
+        <v>23</v>
+      </c>
+      <c r="L128">
+        <v>22</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" t="s">
+        <v>21</v>
+      </c>
+      <c r="J129" t="s">
+        <v>23</v>
+      </c>
+      <c r="L129">
+        <v>40</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" t="s">
+        <v>21</v>
+      </c>
+      <c r="J130" t="s">
+        <v>23</v>
+      </c>
+      <c r="L130">
+        <v>52</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" t="s">
+        <v>21</v>
+      </c>
+      <c r="J131" t="s">
+        <v>23</v>
+      </c>
+      <c r="L131">
+        <v>15</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" t="s">
+        <v>21</v>
+      </c>
+      <c r="J132" t="s">
+        <v>23</v>
+      </c>
+      <c r="L132">
+        <v>13</v>
+      </c>
+      <c r="M132">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" t="s">
+        <v>21</v>
+      </c>
+      <c r="J133" t="s">
+        <v>23</v>
+      </c>
+      <c r="L133">
+        <v>35</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="F134" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
+        <v>21</v>
+      </c>
+      <c r="J134" t="s">
+        <v>22</v>
+      </c>
+      <c r="L134">
+        <v>48</v>
+      </c>
+      <c r="M134">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" t="s">
+        <v>21</v>
+      </c>
+      <c r="J135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L135">
+        <v>46</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
+        <v>21</v>
+      </c>
+      <c r="J136" t="s">
+        <v>22</v>
+      </c>
+      <c r="L136">
+        <v>77</v>
+      </c>
+      <c r="M136">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
+      <c r="J137" t="s">
+        <v>23</v>
+      </c>
+      <c r="L137">
+        <v>100</v>
+      </c>
+      <c r="M137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" t="s">
+        <v>21</v>
+      </c>
+      <c r="J138" t="s">
+        <v>22</v>
+      </c>
+      <c r="L138">
+        <v>50</v>
+      </c>
+      <c r="M138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" t="s">
+        <v>21</v>
+      </c>
+      <c r="J139" t="s">
+        <v>22</v>
+      </c>
+      <c r="L139">
+        <v>96</v>
+      </c>
+      <c r="M139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>21</v>
+      </c>
+      <c r="J140" t="s">
+        <v>22</v>
+      </c>
+      <c r="L140">
+        <v>24</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" t="s">
+        <v>21</v>
+      </c>
+      <c r="J141" t="s">
+        <v>23</v>
+      </c>
+      <c r="L141">
+        <v>22</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="F142" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" t="s">
+        <v>21</v>
+      </c>
+      <c r="J142" t="s">
+        <v>23</v>
+      </c>
+      <c r="L142">
+        <v>19</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" t="s">
+        <v>21</v>
+      </c>
+      <c r="J143" t="s">
+        <v>23</v>
+      </c>
+      <c r="L143">
+        <v>27</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" t="s">
+        <v>21</v>
+      </c>
+      <c r="J144" t="s">
+        <v>23</v>
+      </c>
+      <c r="L144">
+        <v>15</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" t="s">
+        <v>21</v>
+      </c>
+      <c r="J145" t="s">
+        <v>22</v>
+      </c>
+      <c r="L145">
+        <v>70</v>
+      </c>
+      <c r="M145">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+      <c r="F146" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" t="s">
+        <v>21</v>
+      </c>
+      <c r="J146" t="s">
+        <v>23</v>
+      </c>
+      <c r="L146">
+        <v>11</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" t="s">
+        <v>21</v>
+      </c>
+      <c r="J147" t="s">
+        <v>23</v>
+      </c>
+      <c r="L147">
+        <v>15</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" t="s">
+        <v>21</v>
+      </c>
+      <c r="J148" t="s">
+        <v>23</v>
+      </c>
+      <c r="L148">
+        <v>11</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" t="s">
+        <v>21</v>
+      </c>
+      <c r="J149" t="s">
+        <v>24</v>
+      </c>
+      <c r="L149">
+        <v>60</v>
+      </c>
+      <c r="M149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+      <c r="F150" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" t="s">
+        <v>21</v>
+      </c>
+      <c r="J150" t="s">
+        <v>24</v>
+      </c>
+      <c r="L150">
+        <v>19</v>
+      </c>
+      <c r="M150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="F151" t="s">
+        <v>20</v>
+      </c>
+      <c r="G151" t="s">
+        <v>21</v>
+      </c>
+      <c r="J151" t="s">
+        <v>24</v>
+      </c>
+      <c r="L151">
+        <v>18</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="F152" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" t="s">
+        <v>21</v>
+      </c>
+      <c r="J152" t="s">
+        <v>24</v>
+      </c>
+      <c r="L152">
+        <v>200</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153" t="s">
+        <v>20</v>
+      </c>
+      <c r="G153" t="s">
+        <v>21</v>
+      </c>
+      <c r="J153" t="s">
+        <v>24</v>
+      </c>
+      <c r="L153">
+        <v>63</v>
+      </c>
+      <c r="M153">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154" t="s">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>21</v>
+      </c>
+      <c r="J154" t="s">
+        <v>24</v>
+      </c>
+      <c r="L154">
+        <v>46</v>
+      </c>
+      <c r="M154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>3</v>
+      </c>
+      <c r="F155" t="s">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>21</v>
+      </c>
+      <c r="J155" t="s">
+        <v>24</v>
+      </c>
+      <c r="L155">
+        <v>36</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
+      <c r="F156" t="s">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>21</v>
+      </c>
+      <c r="J156" t="s">
+        <v>24</v>
+      </c>
+      <c r="L156">
+        <v>41</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+      <c r="F157" t="s">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>21</v>
+      </c>
+      <c r="J157" t="s">
+        <v>24</v>
+      </c>
+      <c r="L157">
+        <v>27</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>3</v>
+      </c>
+      <c r="F158" t="s">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>21</v>
+      </c>
+      <c r="J158" t="s">
+        <v>24</v>
+      </c>
+      <c r="L158">
+        <v>44</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+      <c r="F159" t="s">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>21</v>
+      </c>
+      <c r="J159" t="s">
+        <v>24</v>
+      </c>
+      <c r="L159">
+        <v>17</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
+      <c r="F160" t="s">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>21</v>
+      </c>
+      <c r="J160" t="s">
+        <v>24</v>
+      </c>
+      <c r="L160">
+        <v>7</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161" t="s">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>21</v>
+      </c>
+      <c r="J161" t="s">
+        <v>24</v>
+      </c>
+      <c r="L161">
+        <v>14</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" t="s">
+        <v>25</v>
+      </c>
+      <c r="C162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G162" t="s">
+        <v>21</v>
+      </c>
+      <c r="J162" t="s">
+        <v>24</v>
+      </c>
+      <c r="L162">
+        <v>10</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="F163" t="s">
+        <v>20</v>
+      </c>
+      <c r="G163" t="s">
+        <v>21</v>
+      </c>
+      <c r="J163" t="s">
+        <v>24</v>
+      </c>
+      <c r="L163">
+        <v>24</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164" t="s">
+        <v>20</v>
+      </c>
+      <c r="G164" t="s">
+        <v>21</v>
+      </c>
+      <c r="J164" t="s">
+        <v>24</v>
+      </c>
+      <c r="L164">
+        <v>52</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="F165" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" t="s">
+        <v>21</v>
+      </c>
+      <c r="J165" t="s">
+        <v>24</v>
+      </c>
+      <c r="L165">
+        <v>9</v>
+      </c>
+      <c r="M165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="F166" t="s">
+        <v>20</v>
+      </c>
+      <c r="G166" t="s">
+        <v>21</v>
+      </c>
+      <c r="J166" t="s">
+        <v>24</v>
+      </c>
+      <c r="L166">
+        <v>14</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>10</v>
+      </c>
+      <c r="F167" t="s">
+        <v>20</v>
+      </c>
+      <c r="G167" t="s">
+        <v>21</v>
+      </c>
+      <c r="J167" t="s">
+        <v>22</v>
+      </c>
+      <c r="L167">
+        <v>8</v>
+      </c>
+      <c r="M167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>10</v>
+      </c>
+      <c r="F168" t="s">
+        <v>20</v>
+      </c>
+      <c r="G168" t="s">
+        <v>21</v>
+      </c>
+      <c r="J168" t="s">
+        <v>22</v>
+      </c>
+      <c r="L168">
+        <v>16</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>10</v>
+      </c>
+      <c r="F169" t="s">
+        <v>20</v>
+      </c>
+      <c r="G169" t="s">
+        <v>21</v>
+      </c>
+      <c r="J169" t="s">
+        <v>22</v>
+      </c>
+      <c r="L169">
+        <v>8</v>
+      </c>
+      <c r="M169">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>10</v>
+      </c>
+      <c r="F170" t="s">
+        <v>20</v>
+      </c>
+      <c r="G170" t="s">
+        <v>21</v>
+      </c>
+      <c r="J170" t="s">
+        <v>22</v>
+      </c>
+      <c r="L170">
+        <v>5.5</v>
+      </c>
+      <c r="M170">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>10</v>
+      </c>
+      <c r="F171" t="s">
+        <v>20</v>
+      </c>
+      <c r="G171" t="s">
+        <v>21</v>
+      </c>
+      <c r="J171" t="s">
+        <v>22</v>
+      </c>
+      <c r="L171">
+        <v>6</v>
+      </c>
+      <c r="M171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>10</v>
+      </c>
+      <c r="F172" t="s">
+        <v>20</v>
+      </c>
+      <c r="G172" t="s">
+        <v>21</v>
+      </c>
+      <c r="J172" t="s">
+        <v>22</v>
+      </c>
+      <c r="L172">
+        <v>8</v>
+      </c>
+      <c r="M172">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>10</v>
+      </c>
+      <c r="F173" t="s">
+        <v>20</v>
+      </c>
+      <c r="G173" t="s">
+        <v>21</v>
+      </c>
+      <c r="J173" t="s">
+        <v>22</v>
+      </c>
+      <c r="L173">
+        <v>7</v>
+      </c>
+      <c r="M173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>10</v>
+      </c>
+      <c r="F174" t="s">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>21</v>
+      </c>
+      <c r="J174" t="s">
+        <v>22</v>
+      </c>
+      <c r="L174">
+        <v>43</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" t="s">
+        <v>17</v>
+      </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>10</v>
+      </c>
+      <c r="F175" t="s">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>21</v>
+      </c>
+      <c r="J175" t="s">
+        <v>22</v>
+      </c>
+      <c r="L175">
+        <v>30</v>
+      </c>
+      <c r="M175">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>10</v>
+      </c>
+      <c r="F176" t="s">
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>21</v>
+      </c>
+      <c r="J176" t="s">
+        <v>22</v>
+      </c>
+      <c r="L176">
+        <v>20</v>
+      </c>
+      <c r="M176">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>10</v>
+      </c>
+      <c r="F177" t="s">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>21</v>
+      </c>
+      <c r="J177" t="s">
+        <v>22</v>
+      </c>
+      <c r="L177">
+        <v>18</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" t="s">
+        <v>17</v>
+      </c>
+      <c r="B178" t="s">
+        <v>25</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>10</v>
+      </c>
+      <c r="F178" t="s">
+        <v>20</v>
+      </c>
+      <c r="G178" t="s">
+        <v>21</v>
+      </c>
+      <c r="J178" t="s">
+        <v>22</v>
+      </c>
+      <c r="L178">
+        <v>31</v>
+      </c>
+      <c r="M178">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>10</v>
+      </c>
+      <c r="F179" t="s">
+        <v>20</v>
+      </c>
+      <c r="G179" t="s">
+        <v>21</v>
+      </c>
+      <c r="J179" t="s">
+        <v>22</v>
+      </c>
+      <c r="L179">
+        <v>27</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" t="s">
+        <v>25</v>
+      </c>
+      <c r="C180" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>10</v>
+      </c>
+      <c r="F180" t="s">
+        <v>20</v>
+      </c>
+      <c r="G180" t="s">
+        <v>21</v>
+      </c>
+      <c r="J180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L180">
+        <v>6</v>
+      </c>
+      <c r="M180">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" t="s">
+        <v>17</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s">
+        <v>20</v>
+      </c>
+      <c r="G181" t="s">
+        <v>21</v>
+      </c>
+      <c r="J181" t="s">
+        <v>22</v>
+      </c>
+      <c r="L181">
+        <v>20</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" t="s">
+        <v>17</v>
+      </c>
+      <c r="B182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
+        <v>20</v>
+      </c>
+      <c r="G182" t="s">
+        <v>21</v>
+      </c>
+      <c r="J182" t="s">
+        <v>22</v>
+      </c>
+      <c r="L182">
+        <v>24</v>
+      </c>
+      <c r="M182">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="A183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>10</v>
+      </c>
+      <c r="F183" t="s">
+        <v>20</v>
+      </c>
+      <c r="G183" t="s">
+        <v>21</v>
+      </c>
+      <c r="J183" t="s">
+        <v>22</v>
+      </c>
+      <c r="L183">
+        <v>90</v>
+      </c>
+      <c r="M183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>10</v>
+      </c>
+      <c r="F184" t="s">
+        <v>20</v>
+      </c>
+      <c r="G184" t="s">
+        <v>21</v>
+      </c>
+      <c r="J184" t="s">
+        <v>22</v>
+      </c>
+      <c r="L184">
+        <v>50</v>
+      </c>
+      <c r="M184">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>10</v>
+      </c>
+      <c r="F185" t="s">
+        <v>20</v>
+      </c>
+      <c r="G185" t="s">
+        <v>21</v>
+      </c>
+      <c r="J185" t="s">
+        <v>22</v>
+      </c>
+      <c r="L185">
+        <v>26</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
+      <c r="A186" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>10</v>
+      </c>
+      <c r="F186" t="s">
+        <v>20</v>
+      </c>
+      <c r="G186" t="s">
+        <v>21</v>
+      </c>
+      <c r="J186" t="s">
+        <v>22</v>
+      </c>
+      <c r="L186">
+        <v>16</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>10</v>
+      </c>
+      <c r="F187" t="s">
+        <v>20</v>
+      </c>
+      <c r="G187" t="s">
+        <v>21</v>
+      </c>
+      <c r="J187" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187">
+        <v>22</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="A188" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>10</v>
+      </c>
+      <c r="F188" t="s">
+        <v>20</v>
+      </c>
+      <c r="G188" t="s">
+        <v>21</v>
+      </c>
+      <c r="J188" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188">
+        <v>30</v>
+      </c>
+      <c r="M188">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="A189" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>10</v>
+      </c>
+      <c r="F189" t="s">
+        <v>20</v>
+      </c>
+      <c r="G189" t="s">
+        <v>21</v>
+      </c>
+      <c r="J189" t="s">
+        <v>22</v>
+      </c>
+      <c r="L189">
+        <v>17</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
+      <c r="A190" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" t="s">
+        <v>25</v>
+      </c>
+      <c r="C190" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>10</v>
+      </c>
+      <c r="F190" t="s">
+        <v>20</v>
+      </c>
+      <c r="G190" t="s">
+        <v>21</v>
+      </c>
+      <c r="J190" t="s">
+        <v>22</v>
+      </c>
+      <c r="L190">
+        <v>30</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
+      <c r="A191" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>10</v>
+      </c>
+      <c r="F191" t="s">
+        <v>20</v>
+      </c>
+      <c r="G191" t="s">
+        <v>21</v>
+      </c>
+      <c r="J191" t="s">
+        <v>22</v>
+      </c>
+      <c r="L191">
+        <v>16</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
+      <c r="A192" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>10</v>
+      </c>
+      <c r="F192" t="s">
+        <v>20</v>
+      </c>
+      <c r="G192" t="s">
+        <v>21</v>
+      </c>
+      <c r="J192" t="s">
+        <v>22</v>
+      </c>
+      <c r="L192">
+        <v>14</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
+      <c r="A193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>10</v>
+      </c>
+      <c r="F193" t="s">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>21</v>
+      </c>
+      <c r="J193" t="s">
+        <v>22</v>
+      </c>
+      <c r="L193">
+        <v>56</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
+      <c r="A194" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194" t="s">
+        <v>25</v>
+      </c>
+      <c r="C194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>10</v>
+      </c>
+      <c r="F194" t="s">
+        <v>20</v>
+      </c>
+      <c r="G194" t="s">
+        <v>21</v>
+      </c>
+      <c r="J194" t="s">
+        <v>22</v>
+      </c>
+      <c r="L194">
+        <v>18</v>
+      </c>
+      <c r="M194">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>10</v>
+      </c>
+      <c r="F195" t="s">
+        <v>20</v>
+      </c>
+      <c r="G195" t="s">
+        <v>21</v>
+      </c>
+      <c r="J195" t="s">
+        <v>22</v>
+      </c>
+      <c r="L195">
+        <v>35</v>
+      </c>
+      <c r="M195">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>10</v>
+      </c>
+      <c r="F196" t="s">
+        <v>20</v>
+      </c>
+      <c r="G196" t="s">
+        <v>21</v>
+      </c>
+      <c r="J196" t="s">
+        <v>22</v>
+      </c>
+      <c r="L196">
+        <v>44</v>
+      </c>
+      <c r="M196">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
+      <c r="A197" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" t="s">
+        <v>25</v>
+      </c>
+      <c r="C197" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>10</v>
+      </c>
+      <c r="F197" t="s">
+        <v>20</v>
+      </c>
+      <c r="G197" t="s">
+        <v>21</v>
+      </c>
+      <c r="J197" t="s">
+        <v>23</v>
+      </c>
+      <c r="L197">
+        <v>35</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
+      <c r="A198" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>10</v>
+      </c>
+      <c r="F198" t="s">
+        <v>20</v>
+      </c>
+      <c r="G198" t="s">
+        <v>21</v>
+      </c>
+      <c r="J198" t="s">
+        <v>23</v>
+      </c>
+      <c r="L198">
+        <v>18</v>
+      </c>
+      <c r="M198">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" t="s">
+        <v>25</v>
+      </c>
+      <c r="C199" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>10</v>
+      </c>
+      <c r="F199" t="s">
+        <v>20</v>
+      </c>
+      <c r="G199" t="s">
+        <v>21</v>
+      </c>
+      <c r="J199" t="s">
+        <v>23</v>
+      </c>
+      <c r="L199">
+        <v>48</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="A200" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>10</v>
+      </c>
+      <c r="F200" t="s">
+        <v>20</v>
+      </c>
+      <c r="G200" t="s">
+        <v>21</v>
+      </c>
+      <c r="J200" t="s">
+        <v>23</v>
+      </c>
+      <c r="L200">
+        <v>56</v>
+      </c>
+      <c r="M200">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
+      <c r="A201" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" t="s">
+        <v>25</v>
+      </c>
+      <c r="C201" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>10</v>
+      </c>
+      <c r="F201" t="s">
+        <v>20</v>
+      </c>
+      <c r="G201" t="s">
+        <v>21</v>
+      </c>
+      <c r="J201" t="s">
+        <v>23</v>
+      </c>
+      <c r="L201">
+        <v>70</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
+      <c r="A202" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>10</v>
+      </c>
+      <c r="F202" t="s">
+        <v>20</v>
+      </c>
+      <c r="G202" t="s">
+        <v>21</v>
+      </c>
+      <c r="J202" t="s">
+        <v>23</v>
+      </c>
+      <c r="L202">
+        <v>78</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
+      <c r="A203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" t="s">
+        <v>25</v>
+      </c>
+      <c r="C203" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>20</v>
+      </c>
+      <c r="G203" t="s">
+        <v>21</v>
+      </c>
+      <c r="J203" t="s">
+        <v>23</v>
+      </c>
+      <c r="L203">
+        <v>46</v>
+      </c>
+      <c r="M203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
+      <c r="A204" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>10</v>
+      </c>
+      <c r="F204" t="s">
+        <v>20</v>
+      </c>
+      <c r="G204" t="s">
+        <v>21</v>
+      </c>
+      <c r="J204" t="s">
+        <v>23</v>
+      </c>
+      <c r="L204">
+        <v>58</v>
+      </c>
+      <c r="M204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
+      <c r="A205" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" t="s">
+        <v>25</v>
+      </c>
+      <c r="C205" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>10</v>
+      </c>
+      <c r="F205" t="s">
+        <v>20</v>
+      </c>
+      <c r="G205" t="s">
+        <v>21</v>
+      </c>
+      <c r="J205" t="s">
+        <v>23</v>
+      </c>
+      <c r="L205">
+        <v>32</v>
+      </c>
+      <c r="M205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
+      <c r="A206" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" t="s">
+        <v>25</v>
+      </c>
+      <c r="C206" t="s">
+        <v>18</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>10</v>
+      </c>
+      <c r="F206" t="s">
+        <v>20</v>
+      </c>
+      <c r="G206" t="s">
+        <v>21</v>
+      </c>
+      <c r="J206" t="s">
+        <v>23</v>
+      </c>
+      <c r="L206">
+        <v>16</v>
+      </c>
+      <c r="M206">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
+      <c r="A207" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" t="s">
+        <v>25</v>
+      </c>
+      <c r="C207" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>10</v>
+      </c>
+      <c r="F207" t="s">
+        <v>20</v>
+      </c>
+      <c r="G207" t="s">
+        <v>21</v>
+      </c>
+      <c r="J207" t="s">
+        <v>23</v>
+      </c>
+      <c r="L207">
+        <v>22</v>
+      </c>
+      <c r="M207">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
+      <c r="A208" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" t="s">
+        <v>25</v>
+      </c>
+      <c r="C208" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>10</v>
+      </c>
+      <c r="F208" t="s">
+        <v>20</v>
+      </c>
+      <c r="G208" t="s">
+        <v>21</v>
+      </c>
+      <c r="J208" t="s">
+        <v>23</v>
+      </c>
+      <c r="L208">
+        <v>25</v>
+      </c>
+      <c r="M208">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
+      <c r="A209" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" t="s">
+        <v>25</v>
+      </c>
+      <c r="C209" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>10</v>
+      </c>
+      <c r="F209" t="s">
+        <v>20</v>
+      </c>
+      <c r="G209" t="s">
+        <v>21</v>
+      </c>
+      <c r="J209" t="s">
+        <v>23</v>
+      </c>
+      <c r="L209">
+        <v>60</v>
+      </c>
+      <c r="M209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
+      <c r="A210" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>10</v>
+      </c>
+      <c r="F210" t="s">
+        <v>20</v>
+      </c>
+      <c r="G210" t="s">
+        <v>21</v>
+      </c>
+      <c r="J210" t="s">
+        <v>23</v>
+      </c>
+      <c r="L210">
+        <v>58</v>
+      </c>
+      <c r="M210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
+      <c r="A211" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>10</v>
+      </c>
+      <c r="F211" t="s">
+        <v>20</v>
+      </c>
+      <c r="G211" t="s">
+        <v>21</v>
+      </c>
+      <c r="J211" t="s">
+        <v>23</v>
+      </c>
+      <c r="L211">
+        <v>12</v>
+      </c>
+      <c r="M211">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
+      <c r="A212" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" t="s">
+        <v>25</v>
+      </c>
+      <c r="C212" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>10</v>
+      </c>
+      <c r="F212" t="s">
+        <v>20</v>
+      </c>
+      <c r="G212" t="s">
+        <v>21</v>
+      </c>
+      <c r="J212" t="s">
+        <v>23</v>
+      </c>
+      <c r="L212">
+        <v>19</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
+      <c r="A213" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>10</v>
+      </c>
+      <c r="F213" t="s">
+        <v>20</v>
+      </c>
+      <c r="G213" t="s">
+        <v>21</v>
+      </c>
+      <c r="J213" t="s">
+        <v>23</v>
+      </c>
+      <c r="L213">
+        <v>24</v>
+      </c>
+      <c r="M213">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
+      <c r="A214" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214" t="s">
+        <v>18</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <v>10</v>
+      </c>
+      <c r="F214" t="s">
+        <v>20</v>
+      </c>
+      <c r="G214" t="s">
+        <v>21</v>
+      </c>
+      <c r="J214" t="s">
+        <v>23</v>
+      </c>
+      <c r="L214">
+        <v>74</v>
+      </c>
+      <c r="M214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
+      <c r="A215" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" t="s">
+        <v>25</v>
+      </c>
+      <c r="C215" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>10</v>
+      </c>
+      <c r="F215" t="s">
+        <v>20</v>
+      </c>
+      <c r="G215" t="s">
+        <v>21</v>
+      </c>
+      <c r="J215" t="s">
+        <v>24</v>
+      </c>
+      <c r="L215">
+        <v>14</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
+      <c r="A216" t="s">
+        <v>17</v>
+      </c>
+      <c r="B216" t="s">
+        <v>25</v>
+      </c>
+      <c r="C216" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>10</v>
+      </c>
+      <c r="F216" t="s">
+        <v>20</v>
+      </c>
+      <c r="G216" t="s">
+        <v>21</v>
+      </c>
+      <c r="J216" t="s">
+        <v>24</v>
+      </c>
+      <c r="L216">
+        <v>24</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13">
+      <c r="A217" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" t="s">
+        <v>25</v>
+      </c>
+      <c r="C217" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>10</v>
+      </c>
+      <c r="F217" t="s">
+        <v>20</v>
+      </c>
+      <c r="G217" t="s">
+        <v>21</v>
+      </c>
+      <c r="J217" t="s">
+        <v>24</v>
+      </c>
+      <c r="L217">
+        <v>22</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13">
+      <c r="A218" t="s">
+        <v>17</v>
+      </c>
+      <c r="B218" t="s">
+        <v>25</v>
+      </c>
+      <c r="C218" t="s">
+        <v>18</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>10</v>
+      </c>
+      <c r="F218" t="s">
+        <v>20</v>
+      </c>
+      <c r="G218" t="s">
+        <v>21</v>
+      </c>
+      <c r="J218" t="s">
+        <v>24</v>
+      </c>
+      <c r="L218">
+        <v>17</v>
+      </c>
+      <c r="M218">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13">
+      <c r="A219" t="s">
+        <v>17</v>
+      </c>
+      <c r="B219" t="s">
+        <v>25</v>
+      </c>
+      <c r="C219" t="s">
+        <v>18</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>10</v>
+      </c>
+      <c r="F219" t="s">
+        <v>20</v>
+      </c>
+      <c r="G219" t="s">
+        <v>21</v>
+      </c>
+      <c r="J219" t="s">
+        <v>24</v>
+      </c>
+      <c r="L219">
+        <v>38</v>
+      </c>
+      <c r="M219">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13">
+      <c r="A220" t="s">
+        <v>17</v>
+      </c>
+      <c r="B220" t="s">
+        <v>25</v>
+      </c>
+      <c r="C220" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>10</v>
+      </c>
+      <c r="F220" t="s">
+        <v>20</v>
+      </c>
+      <c r="G220" t="s">
+        <v>21</v>
+      </c>
+      <c r="J220" t="s">
+        <v>24</v>
+      </c>
+      <c r="L220">
+        <v>13</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13">
+      <c r="A221" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221" t="s">
+        <v>18</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>10</v>
+      </c>
+      <c r="F221" t="s">
+        <v>20</v>
+      </c>
+      <c r="G221" t="s">
+        <v>21</v>
+      </c>
+      <c r="J221" t="s">
+        <v>24</v>
+      </c>
+      <c r="L221">
+        <v>40</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13">
+      <c r="A222" t="s">
+        <v>17</v>
+      </c>
+      <c r="B222" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" t="s">
+        <v>18</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>10</v>
+      </c>
+      <c r="F222" t="s">
+        <v>20</v>
+      </c>
+      <c r="G222" t="s">
+        <v>21</v>
+      </c>
+      <c r="J222" t="s">
+        <v>24</v>
+      </c>
+      <c r="L222">
+        <v>12</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13">
+      <c r="A223" t="s">
+        <v>17</v>
+      </c>
+      <c r="B223" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223" t="s">
+        <v>18</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>10</v>
+      </c>
+      <c r="F223" t="s">
+        <v>20</v>
+      </c>
+      <c r="G223" t="s">
+        <v>21</v>
+      </c>
+      <c r="J223" t="s">
+        <v>24</v>
+      </c>
+      <c r="L223">
+        <v>40</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
+      <c r="A224" t="s">
+        <v>17</v>
+      </c>
+      <c r="B224" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>10</v>
+      </c>
+      <c r="F224" t="s">
+        <v>20</v>
+      </c>
+      <c r="G224" t="s">
+        <v>21</v>
+      </c>
+      <c r="J224" t="s">
+        <v>24</v>
+      </c>
+      <c r="L224">
+        <v>14</v>
+      </c>
+      <c r="M224">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
+      <c r="A225" t="s">
+        <v>17</v>
+      </c>
+      <c r="B225" t="s">
+        <v>25</v>
+      </c>
+      <c r="C225" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>10</v>
+      </c>
+      <c r="F225" t="s">
+        <v>20</v>
+      </c>
+      <c r="G225" t="s">
+        <v>21</v>
+      </c>
+      <c r="J225" t="s">
+        <v>24</v>
+      </c>
+      <c r="L225">
+        <v>35</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
+      <c r="A226" t="s">
+        <v>17</v>
+      </c>
+      <c r="B226" t="s">
+        <v>25</v>
+      </c>
+      <c r="C226" t="s">
+        <v>18</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>10</v>
+      </c>
+      <c r="F226" t="s">
+        <v>20</v>
+      </c>
+      <c r="G226" t="s">
+        <v>21</v>
+      </c>
+      <c r="J226" t="s">
+        <v>24</v>
+      </c>
+      <c r="L226">
+        <v>50</v>
+      </c>
+      <c r="M226">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
+      <c r="A227" t="s">
+        <v>17</v>
+      </c>
+      <c r="B227" t="s">
+        <v>25</v>
+      </c>
+      <c r="C227" t="s">
+        <v>18</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>10</v>
+      </c>
+      <c r="F227" t="s">
+        <v>20</v>
+      </c>
+      <c r="G227" t="s">
+        <v>21</v>
+      </c>
+      <c r="J227" t="s">
+        <v>24</v>
+      </c>
+      <c r="L227">
+        <v>25</v>
+      </c>
+      <c r="M227">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="A228" t="s">
+        <v>17</v>
+      </c>
+      <c r="B228" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>10</v>
+      </c>
+      <c r="F228" t="s">
+        <v>20</v>
+      </c>
+      <c r="G228" t="s">
+        <v>21</v>
+      </c>
+      <c r="J228" t="s">
+        <v>24</v>
+      </c>
+      <c r="L228">
+        <v>22</v>
+      </c>
+      <c r="M228">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
+      <c r="A229" t="s">
+        <v>17</v>
+      </c>
+      <c r="B229" t="s">
+        <v>25</v>
+      </c>
+      <c r="C229" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>10</v>
+      </c>
+      <c r="F229" t="s">
+        <v>20</v>
+      </c>
+      <c r="G229" t="s">
+        <v>21</v>
+      </c>
+      <c r="J229" t="s">
+        <v>24</v>
+      </c>
+      <c r="L229">
+        <v>24</v>
+      </c>
+      <c r="M229">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13">
+      <c r="A230" t="s">
+        <v>17</v>
+      </c>
+      <c r="B230" t="s">
+        <v>25</v>
+      </c>
+      <c r="C230" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="E230">
+        <v>8</v>
+      </c>
+      <c r="F230" t="s">
+        <v>20</v>
+      </c>
+      <c r="G230" t="s">
+        <v>21</v>
+      </c>
+      <c r="J230" t="s">
+        <v>22</v>
+      </c>
+      <c r="L230">
+        <v>30</v>
+      </c>
+      <c r="M230">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13">
+      <c r="A231" t="s">
+        <v>17</v>
+      </c>
+      <c r="B231" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231">
+        <v>8</v>
+      </c>
+      <c r="F231" t="s">
+        <v>20</v>
+      </c>
+      <c r="G231" t="s">
+        <v>21</v>
+      </c>
+      <c r="J231" t="s">
+        <v>22</v>
+      </c>
+      <c r="L231">
+        <v>6</v>
+      </c>
+      <c r="M231">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13">
+      <c r="A232" t="s">
+        <v>17</v>
+      </c>
+      <c r="B232" t="s">
+        <v>25</v>
+      </c>
+      <c r="C232" t="s">
+        <v>19</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>8</v>
+      </c>
+      <c r="F232" t="s">
+        <v>20</v>
+      </c>
+      <c r="G232" t="s">
+        <v>21</v>
+      </c>
+      <c r="J232" t="s">
+        <v>22</v>
+      </c>
+      <c r="L232">
+        <v>6</v>
+      </c>
+      <c r="M232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="A233" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" t="s">
+        <v>25</v>
+      </c>
+      <c r="C233" t="s">
+        <v>19</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>8</v>
+      </c>
+      <c r="F233" t="s">
+        <v>20</v>
+      </c>
+      <c r="G233" t="s">
+        <v>21</v>
+      </c>
+      <c r="J233" t="s">
+        <v>22</v>
+      </c>
+      <c r="L233">
+        <v>5</v>
+      </c>
+      <c r="M233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="A234" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234" t="s">
+        <v>25</v>
+      </c>
+      <c r="C234" t="s">
+        <v>19</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>8</v>
+      </c>
+      <c r="F234" t="s">
+        <v>20</v>
+      </c>
+      <c r="G234" t="s">
+        <v>21</v>
+      </c>
+      <c r="J234" t="s">
+        <v>22</v>
+      </c>
+      <c r="L234">
+        <v>4</v>
+      </c>
+      <c r="M234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13">
+      <c r="A235" t="s">
+        <v>17</v>
+      </c>
+      <c r="B235" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="E235">
+        <v>8</v>
+      </c>
+      <c r="F235" t="s">
+        <v>20</v>
+      </c>
+      <c r="G235" t="s">
+        <v>21</v>
+      </c>
+      <c r="J235" t="s">
+        <v>22</v>
+      </c>
+      <c r="L235">
+        <v>5</v>
+      </c>
+      <c r="M235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" t="s">
+        <v>17</v>
+      </c>
+      <c r="B236" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>8</v>
+      </c>
+      <c r="F236" t="s">
+        <v>20</v>
+      </c>
+      <c r="G236" t="s">
+        <v>21</v>
+      </c>
+      <c r="J236" t="s">
+        <v>22</v>
+      </c>
+      <c r="L236">
+        <v>20</v>
+      </c>
+      <c r="M236">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237" t="s">
+        <v>17</v>
+      </c>
+      <c r="B237" t="s">
+        <v>25</v>
+      </c>
+      <c r="C237" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>8</v>
+      </c>
+      <c r="F237" t="s">
+        <v>20</v>
+      </c>
+      <c r="G237" t="s">
+        <v>21</v>
+      </c>
+      <c r="J237" t="s">
+        <v>22</v>
+      </c>
+      <c r="L237">
+        <v>5</v>
+      </c>
+      <c r="M237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
+      <c r="A238" t="s">
+        <v>17</v>
+      </c>
+      <c r="B238" t="s">
+        <v>25</v>
+      </c>
+      <c r="C238" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <v>8</v>
+      </c>
+      <c r="F238" t="s">
+        <v>20</v>
+      </c>
+      <c r="G238" t="s">
+        <v>21</v>
+      </c>
+      <c r="J238" t="s">
+        <v>22</v>
+      </c>
+      <c r="L238">
+        <v>4</v>
+      </c>
+      <c r="M238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
+      <c r="A239" t="s">
+        <v>17</v>
+      </c>
+      <c r="B239" t="s">
+        <v>25</v>
+      </c>
+      <c r="C239" t="s">
+        <v>19</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <v>8</v>
+      </c>
+      <c r="F239" t="s">
+        <v>20</v>
+      </c>
+      <c r="G239" t="s">
+        <v>21</v>
+      </c>
+      <c r="J239" t="s">
+        <v>22</v>
+      </c>
+      <c r="L239">
+        <v>4</v>
+      </c>
+      <c r="M239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
+      <c r="A240" t="s">
+        <v>17</v>
+      </c>
+      <c r="B240" t="s">
+        <v>25</v>
+      </c>
+      <c r="C240" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240">
+        <v>8</v>
+      </c>
+      <c r="F240" t="s">
+        <v>20</v>
+      </c>
+      <c r="G240" t="s">
+        <v>21</v>
+      </c>
+      <c r="J240" t="s">
+        <v>22</v>
+      </c>
+      <c r="L240">
+        <v>6.5</v>
+      </c>
+      <c r="M240">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13">
+      <c r="A241" t="s">
+        <v>17</v>
+      </c>
+      <c r="B241" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>8</v>
+      </c>
+      <c r="F241" t="s">
+        <v>20</v>
+      </c>
+      <c r="G241" t="s">
+        <v>21</v>
+      </c>
+      <c r="J241" t="s">
+        <v>22</v>
+      </c>
+      <c r="L241">
+        <v>5</v>
+      </c>
+      <c r="M241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13">
+      <c r="A242" t="s">
+        <v>17</v>
+      </c>
+      <c r="B242" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242" t="s">
+        <v>19</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>8</v>
+      </c>
+      <c r="F242" t="s">
+        <v>20</v>
+      </c>
+      <c r="G242" t="s">
+        <v>21</v>
+      </c>
+      <c r="J242" t="s">
+        <v>22</v>
+      </c>
+      <c r="L242">
+        <v>6.5</v>
+      </c>
+      <c r="M242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
+      <c r="A243" t="s">
+        <v>17</v>
+      </c>
+      <c r="B243" t="s">
+        <v>25</v>
+      </c>
+      <c r="C243" t="s">
+        <v>19</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>8</v>
+      </c>
+      <c r="F243" t="s">
+        <v>20</v>
+      </c>
+      <c r="G243" t="s">
+        <v>21</v>
+      </c>
+      <c r="J243" t="s">
+        <v>22</v>
+      </c>
+      <c r="L243">
+        <v>5</v>
+      </c>
+      <c r="M243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
+      <c r="A244" t="s">
+        <v>17</v>
+      </c>
+      <c r="B244" t="s">
+        <v>25</v>
+      </c>
+      <c r="C244" t="s">
+        <v>19</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>8</v>
+      </c>
+      <c r="F244" t="s">
+        <v>20</v>
+      </c>
+      <c r="G244" t="s">
+        <v>21</v>
+      </c>
+      <c r="J244" t="s">
+        <v>22</v>
+      </c>
+      <c r="L244">
+        <v>6.5</v>
+      </c>
+      <c r="M244">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13">
+      <c r="A245" t="s">
+        <v>17</v>
+      </c>
+      <c r="B245" t="s">
+        <v>25</v>
+      </c>
+      <c r="C245" t="s">
+        <v>19</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245">
+        <v>8</v>
+      </c>
+      <c r="F245" t="s">
+        <v>20</v>
+      </c>
+      <c r="G245" t="s">
+        <v>21</v>
+      </c>
+      <c r="J245" t="s">
+        <v>22</v>
+      </c>
+      <c r="L245">
+        <v>4.5</v>
+      </c>
+      <c r="M245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13">
+      <c r="A246" t="s">
+        <v>17</v>
+      </c>
+      <c r="B246" t="s">
+        <v>25</v>
+      </c>
+      <c r="C246" t="s">
+        <v>19</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="E246">
+        <v>8</v>
+      </c>
+      <c r="F246" t="s">
+        <v>20</v>
+      </c>
+      <c r="G246" t="s">
+        <v>21</v>
+      </c>
+      <c r="J246" t="s">
+        <v>22</v>
+      </c>
+      <c r="L246">
+        <v>7</v>
+      </c>
+      <c r="M246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
+      <c r="A247" t="s">
+        <v>17</v>
+      </c>
+      <c r="B247" t="s">
+        <v>25</v>
+      </c>
+      <c r="C247" t="s">
+        <v>19</v>
+      </c>
+      <c r="D247">
+        <v>2</v>
+      </c>
+      <c r="E247">
+        <v>8</v>
+      </c>
+      <c r="F247" t="s">
+        <v>20</v>
+      </c>
+      <c r="G247" t="s">
+        <v>21</v>
+      </c>
+      <c r="J247" t="s">
+        <v>22</v>
+      </c>
+      <c r="L247">
+        <v>23</v>
+      </c>
+      <c r="M247">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13">
+      <c r="A248" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" t="s">
+        <v>25</v>
+      </c>
+      <c r="C248" t="s">
+        <v>19</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248">
+        <v>8</v>
+      </c>
+      <c r="F248" t="s">
+        <v>20</v>
+      </c>
+      <c r="G248" t="s">
+        <v>21</v>
+      </c>
+      <c r="J248" t="s">
+        <v>22</v>
+      </c>
+      <c r="L248">
+        <v>32</v>
+      </c>
+      <c r="M248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13">
+      <c r="A249" t="s">
+        <v>17</v>
+      </c>
+      <c r="B249" t="s">
+        <v>25</v>
+      </c>
+      <c r="C249" t="s">
+        <v>19</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>8</v>
+      </c>
+      <c r="F249" t="s">
+        <v>20</v>
+      </c>
+      <c r="G249" t="s">
+        <v>21</v>
+      </c>
+      <c r="J249" t="s">
+        <v>22</v>
+      </c>
+      <c r="L249">
+        <v>4</v>
+      </c>
+      <c r="M249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13">
+      <c r="A250" t="s">
+        <v>17</v>
+      </c>
+      <c r="B250" t="s">
+        <v>25</v>
+      </c>
+      <c r="C250" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
+      </c>
+      <c r="E250">
+        <v>8</v>
+      </c>
+      <c r="F250" t="s">
+        <v>20</v>
+      </c>
+      <c r="G250" t="s">
+        <v>21</v>
+      </c>
+      <c r="J250" t="s">
+        <v>22</v>
+      </c>
+      <c r="L250">
+        <v>6</v>
+      </c>
+      <c r="M250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13">
+      <c r="A251" t="s">
+        <v>17</v>
+      </c>
+      <c r="B251" t="s">
+        <v>25</v>
+      </c>
+      <c r="C251" t="s">
+        <v>19</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>8</v>
+      </c>
+      <c r="F251" t="s">
+        <v>20</v>
+      </c>
+      <c r="G251" t="s">
+        <v>21</v>
+      </c>
+      <c r="J251" t="s">
+        <v>22</v>
+      </c>
+      <c r="L251">
+        <v>18</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13">
+      <c r="A252" t="s">
+        <v>17</v>
+      </c>
+      <c r="B252" t="s">
+        <v>25</v>
+      </c>
+      <c r="C252" t="s">
+        <v>19</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="E252">
+        <v>8</v>
+      </c>
+      <c r="F252" t="s">
+        <v>20</v>
+      </c>
+      <c r="G252" t="s">
+        <v>21</v>
+      </c>
+      <c r="J252" t="s">
+        <v>22</v>
+      </c>
+      <c r="L252">
+        <v>4</v>
+      </c>
+      <c r="M252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13">
+      <c r="A253" t="s">
+        <v>17</v>
+      </c>
+      <c r="B253" t="s">
+        <v>25</v>
+      </c>
+      <c r="C253" t="s">
+        <v>19</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <v>8</v>
+      </c>
+      <c r="F253" t="s">
+        <v>20</v>
+      </c>
+      <c r="G253" t="s">
+        <v>21</v>
+      </c>
+      <c r="J253" t="s">
+        <v>22</v>
+      </c>
+      <c r="L253">
+        <v>26</v>
+      </c>
+      <c r="M253">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13">
+      <c r="A254" t="s">
+        <v>17</v>
+      </c>
+      <c r="B254" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254" t="s">
+        <v>19</v>
+      </c>
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254">
+        <v>8</v>
+      </c>
+      <c r="F254" t="s">
+        <v>20</v>
+      </c>
+      <c r="G254" t="s">
+        <v>21</v>
+      </c>
+      <c r="J254" t="s">
+        <v>22</v>
+      </c>
+      <c r="L254">
+        <v>24</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13">
+      <c r="A255" t="s">
+        <v>17</v>
+      </c>
+      <c r="B255" t="s">
+        <v>25</v>
+      </c>
+      <c r="C255" t="s">
+        <v>19</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <v>8</v>
+      </c>
+      <c r="F255" t="s">
+        <v>20</v>
+      </c>
+      <c r="G255" t="s">
+        <v>21</v>
+      </c>
+      <c r="J255" t="s">
+        <v>22</v>
+      </c>
+      <c r="L255">
+        <v>42</v>
+      </c>
+      <c r="M255">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13">
+      <c r="A256" t="s">
+        <v>17</v>
+      </c>
+      <c r="B256" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256" t="s">
+        <v>19</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>8</v>
+      </c>
+      <c r="F256" t="s">
+        <v>20</v>
+      </c>
+      <c r="G256" t="s">
+        <v>21</v>
+      </c>
+      <c r="J256" t="s">
+        <v>22</v>
+      </c>
+      <c r="L256">
+        <v>32</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13">
+      <c r="A257" t="s">
+        <v>17</v>
+      </c>
+      <c r="B257" t="s">
+        <v>25</v>
+      </c>
+      <c r="C257" t="s">
+        <v>19</v>
+      </c>
+      <c r="D257">
+        <v>2</v>
+      </c>
+      <c r="E257">
+        <v>8</v>
+      </c>
+      <c r="F257" t="s">
+        <v>20</v>
+      </c>
+      <c r="G257" t="s">
+        <v>21</v>
+      </c>
+      <c r="J257" t="s">
+        <v>23</v>
+      </c>
+      <c r="L257">
+        <v>28</v>
+      </c>
+      <c r="M257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13">
+      <c r="A258" t="s">
+        <v>17</v>
+      </c>
+      <c r="B258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C258" t="s">
+        <v>19</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+      <c r="E258">
+        <v>8</v>
+      </c>
+      <c r="F258" t="s">
+        <v>20</v>
+      </c>
+      <c r="G258" t="s">
+        <v>21</v>
+      </c>
+      <c r="J258" t="s">
+        <v>23</v>
+      </c>
+      <c r="L258">
+        <v>34</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13">
+      <c r="A259" t="s">
+        <v>17</v>
+      </c>
+      <c r="B259" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259" t="s">
+        <v>19</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259">
+        <v>8</v>
+      </c>
+      <c r="F259" t="s">
+        <v>20</v>
+      </c>
+      <c r="G259" t="s">
+        <v>21</v>
+      </c>
+      <c r="J259" t="s">
+        <v>23</v>
+      </c>
+      <c r="L259">
+        <v>18</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13">
+      <c r="A260" t="s">
+        <v>17</v>
+      </c>
+      <c r="B260" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260" t="s">
+        <v>19</v>
+      </c>
+      <c r="D260">
+        <v>2</v>
+      </c>
+      <c r="E260">
+        <v>8</v>
+      </c>
+      <c r="F260" t="s">
+        <v>20</v>
+      </c>
+      <c r="G260" t="s">
+        <v>21</v>
+      </c>
+      <c r="J260" t="s">
+        <v>22</v>
+      </c>
+      <c r="L260">
+        <v>28</v>
+      </c>
+      <c r="M260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13">
+      <c r="A261" t="s">
+        <v>17</v>
+      </c>
+      <c r="B261" t="s">
+        <v>25</v>
+      </c>
+      <c r="C261" t="s">
+        <v>19</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+      <c r="E261">
+        <v>8</v>
+      </c>
+      <c r="F261" t="s">
+        <v>20</v>
+      </c>
+      <c r="G261" t="s">
+        <v>21</v>
+      </c>
+      <c r="J261" t="s">
+        <v>23</v>
+      </c>
+      <c r="L261">
+        <v>10</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13">
+      <c r="A262" t="s">
+        <v>17</v>
+      </c>
+      <c r="B262" t="s">
+        <v>25</v>
+      </c>
+      <c r="C262" t="s">
+        <v>19</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
+      </c>
+      <c r="E262">
+        <v>8</v>
+      </c>
+      <c r="F262" t="s">
+        <v>20</v>
+      </c>
+      <c r="G262" t="s">
+        <v>21</v>
+      </c>
+      <c r="J262" t="s">
+        <v>24</v>
+      </c>
+      <c r="L262">
+        <v>56</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13">
+      <c r="A263" t="s">
+        <v>17</v>
+      </c>
+      <c r="B263" t="s">
+        <v>25</v>
+      </c>
+      <c r="C263" t="s">
+        <v>19</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+      <c r="E263">
+        <v>8</v>
+      </c>
+      <c r="F263" t="s">
+        <v>20</v>
+      </c>
+      <c r="G263" t="s">
+        <v>21</v>
+      </c>
+      <c r="J263" t="s">
+        <v>24</v>
+      </c>
+      <c r="L263">
+        <v>11</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13">
+      <c r="A264" t="s">
+        <v>17</v>
+      </c>
+      <c r="B264" t="s">
+        <v>25</v>
+      </c>
+      <c r="C264" t="s">
+        <v>19</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="E264">
+        <v>8</v>
+      </c>
+      <c r="F264" t="s">
+        <v>20</v>
+      </c>
+      <c r="G264" t="s">
+        <v>21</v>
+      </c>
+      <c r="J264" t="s">
+        <v>24</v>
+      </c>
+      <c r="L264">
+        <v>15</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13">
+      <c r="A265" t="s">
+        <v>17</v>
+      </c>
+      <c r="B265" t="s">
+        <v>25</v>
+      </c>
+      <c r="C265" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+      <c r="E265">
+        <v>8</v>
+      </c>
+      <c r="F265" t="s">
+        <v>20</v>
+      </c>
+      <c r="G265" t="s">
+        <v>21</v>
+      </c>
+      <c r="J265" t="s">
+        <v>24</v>
+      </c>
+      <c r="L265">
+        <v>26</v>
+      </c>
+      <c r="M265">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13">
+      <c r="A266" t="s">
+        <v>17</v>
+      </c>
+      <c r="B266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C266" t="s">
+        <v>19</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <v>8</v>
+      </c>
+      <c r="F266" t="s">
+        <v>20</v>
+      </c>
+      <c r="G266" t="s">
+        <v>21</v>
+      </c>
+      <c r="J266" t="s">
+        <v>24</v>
+      </c>
+      <c r="L266">
+        <v>9</v>
+      </c>
+      <c r="M266">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13">
+      <c r="A267" t="s">
+        <v>17</v>
+      </c>
+      <c r="B267" t="s">
+        <v>25</v>
+      </c>
+      <c r="C267" t="s">
+        <v>19</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267">
+        <v>8</v>
+      </c>
+      <c r="F267" t="s">
+        <v>20</v>
+      </c>
+      <c r="G267" t="s">
+        <v>21</v>
+      </c>
+      <c r="J267" t="s">
+        <v>24</v>
+      </c>
+      <c r="L267">
+        <v>10</v>
+      </c>
+      <c r="M267">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13">
+      <c r="A268" t="s">
+        <v>17</v>
+      </c>
+      <c r="B268" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268" t="s">
+        <v>19</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268">
+        <v>8</v>
+      </c>
+      <c r="F268" t="s">
+        <v>20</v>
+      </c>
+      <c r="G268" t="s">
+        <v>21</v>
+      </c>
+      <c r="J268" t="s">
+        <v>24</v>
+      </c>
+      <c r="L268">
+        <v>14</v>
+      </c>
+      <c r="M268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13">
+      <c r="A269" t="s">
+        <v>17</v>
+      </c>
+      <c r="B269" t="s">
+        <v>25</v>
+      </c>
+      <c r="C269" t="s">
+        <v>19</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269">
+        <v>8</v>
+      </c>
+      <c r="F269" t="s">
+        <v>20</v>
+      </c>
+      <c r="G269" t="s">
+        <v>21</v>
+      </c>
+      <c r="J269" t="s">
+        <v>24</v>
+      </c>
+      <c r="L269">
+        <v>13</v>
+      </c>
+      <c r="M269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13">
+      <c r="A270" t="s">
+        <v>17</v>
+      </c>
+      <c r="B270" t="s">
+        <v>25</v>
+      </c>
+      <c r="C270" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="E270">
+        <v>8</v>
+      </c>
+      <c r="F270" t="s">
+        <v>20</v>
+      </c>
+      <c r="G270" t="s">
+        <v>21</v>
+      </c>
+      <c r="J270" t="s">
+        <v>24</v>
+      </c>
+      <c r="L270">
+        <v>17</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13">
+      <c r="A271" t="s">
+        <v>17</v>
+      </c>
+      <c r="B271" t="s">
+        <v>25</v>
+      </c>
+      <c r="C271" t="s">
+        <v>19</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <v>8</v>
+      </c>
+      <c r="F271" t="s">
+        <v>20</v>
+      </c>
+      <c r="G271" t="s">
+        <v>21</v>
+      </c>
+      <c r="J271" t="s">
+        <v>23</v>
+      </c>
+      <c r="L271">
+        <v>10</v>
+      </c>
+      <c r="M271">
         <v>1</v>
       </c>
     </row>
